--- a/excel/diem/HH/12a1.xlsx
+++ b/excel/diem/HH/12a1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\test3\excel\HH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\test3\excel\diem\HH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF241A74-D16C-430F-943C-80D2C6AE23EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07414C17-4BB2-48EB-BD35-2941775E20EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{9CBF4156-4CDB-4C3F-B325-C52CFB6B8263}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{9CBF4156-4CDB-4C3F-B325-C52CFB6B8263}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>mã môn</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB26A14A-3639-450E-A899-BD8CC5A0D2BB}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +460,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2014540001</v>
+        <v>2013410005</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -470,19 +470,19 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -493,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>2014540002</v>
+        <v>2014410009</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -503,19 +503,19 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2015540001</v>
+        <v>2014410010</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -536,11 +536,11 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
@@ -548,7 +548,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2015540002</v>
+        <v>2015410009</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -569,21 +569,54 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2015410010</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D6">
+        <v>412015001</v>
+      </c>
+      <c r="E6">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f ca="1">RANDBETWEEN(0,10)</f>
         <v>8</v>
       </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/excel/diem/HH/12a1.xlsx
+++ b/excel/diem/HH/12a1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\test3\excel\diem\HH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\mvc-php\excel\diem\HH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07414C17-4BB2-48EB-BD35-2941775E20EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A9F22-467A-4C1F-A981-A27C8FC50A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{9CBF4156-4CDB-4C3F-B325-C52CFB6B8263}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{9CBF4156-4CDB-4C3F-B325-C52CFB6B8263}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>mã môn</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>12a1</t>
+  </si>
+  <si>
+    <t>năm</t>
   </si>
 </sst>
 </file>
@@ -418,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB26A14A-3639-450E-A899-BD8CC5A0D2BB}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,190 +437,208 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>2013410001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>2019</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>412013001</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:J5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2014410001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2019</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>412015001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>2013410005</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>412013001</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2014410002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>2019</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>412015001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="F2">
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2015410001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2019</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>412015001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J5">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2014410009</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2015410002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>2019</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>412015001</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2014410010</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>412015001</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>2015410009</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>412015001</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>2015410010</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>412015001</v>
-      </c>
-      <c r="E6">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>2</v>
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/excel/diem/HH/12a1.xlsx
+++ b/excel/diem/HH/12a1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\mvc-php\excel\diem\HH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A9F22-467A-4C1F-A981-A27C8FC50A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49BC594-4200-47F8-A1D9-C77C17FDBDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{9CBF4156-4CDB-4C3F-B325-C52CFB6B8263}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>mã môn</t>
   </si>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>năm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+412013003</t>
   </si>
 </sst>
 </file>
@@ -105,8 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +431,14 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -461,12 +472,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>2013410001</v>
+        <v>2015410001</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -477,32 +488,32 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>412013001</v>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:J5" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>2014410001</v>
+        <v>2013410001</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -513,12 +524,12 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>412015001</v>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
@@ -526,14 +537,14 @@
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -549,32 +560,32 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>412015001</v>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>2015410001</v>
+        <v>2015410002</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -585,8 +596,8 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>412015001</v>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
@@ -594,23 +605,23 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2015410002</v>
+        <v>2014410001</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -621,8 +632,8 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>412015001</v>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(0,10)</f>
@@ -634,14 +645,15 @@
       </c>
       <c r="I6">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>